--- a/cea/databases/SG/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/SG/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/archetypes/use_types/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2050F0A-CF3D-0A40-B4D0-9B81B5AA4AA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="19610" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId1"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -120,24 +121,6 @@
     <t>Qcpro_Wm2</t>
   </si>
   <si>
-    <t>Occ_m2pax</t>
-  </si>
-  <si>
-    <t>Vw_lpdpax</t>
-  </si>
-  <si>
-    <t>Vww_lpdpax</t>
-  </si>
-  <si>
-    <t>X_ghpax</t>
-  </si>
-  <si>
-    <t>Qs_Wpax</t>
-  </si>
-  <si>
-    <t>Ve_lpspax</t>
-  </si>
-  <si>
     <t>RH_min_pc</t>
   </si>
   <si>
@@ -148,12 +131,30 @@
   </si>
   <si>
     <t>Ev_kWveh</t>
+  </si>
+  <si>
+    <t>Occ_m2p</t>
+  </si>
+  <si>
+    <t>Qs_Wp</t>
+  </si>
+  <si>
+    <t>X_ghp</t>
+  </si>
+  <si>
+    <t>Vww_ldp</t>
+  </si>
+  <si>
+    <t>Vw_ldp</t>
+  </si>
+  <si>
+    <t>Ve_lsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1019,27 +1020,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>4</v>
@@ -1054,16 +1055,16 @@
         <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1566,40 +1567,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -1614,10 +1615,10 @@
         <v>20</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>28</v>
@@ -1629,10 +1630,10 @@
         <v>29</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>

--- a/cea/databases/SG/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/cea/databases/SG/archetypes/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/archetypes/use_types/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YTSA01\CS\CityEnergyAnalyst\cea\databases\SG\archetypes\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2050F0A-CF3D-0A40-B4D0-9B81B5AA4AA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2020D4-3693-424C-9CBF-C3FB26283155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Ths_set_C</t>
   </si>
@@ -149,14 +160,36 @@
   </si>
   <si>
     <t>Ve_lsp</t>
+  </si>
+  <si>
+    <t>SEMICONDUCTOR</t>
+  </si>
+  <si>
+    <t>PHARMACEUTICAL</t>
+  </si>
+  <si>
+    <t>TCData_Sup</t>
+  </si>
+  <si>
+    <t>TCData_Re</t>
+  </si>
+  <si>
+    <t>Hp_X_Cool</t>
+  </si>
+  <si>
+    <t>Hp_Ratio</t>
+  </si>
+  <si>
+    <t>N_Hs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -675,7 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,9 +730,15 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,24 +1060,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -1064,7 +1103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1090,7 +1129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1155,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1220,7 +1259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1325,7 +1364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1351,7 +1390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1377,7 +1416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1429,24 +1468,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B16" s="7">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
       </c>
-      <c r="D16" s="4">
-        <v>50</v>
+      <c r="D16" s="7">
+        <v>24</v>
       </c>
       <c r="E16" s="4">
         <v>10</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G16" s="4">
         <v>30</v>
@@ -1455,24 +1494,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>-5</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4">
         <v>10</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G17" s="4">
         <v>30</v>
@@ -1481,82 +1520,134 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>30</v>
+      </c>
+      <c r="H18" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>-5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7">
+        <v>-5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>30</v>
+      </c>
+      <c r="H19" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B20" s="7">
         <v>24</v>
       </c>
-      <c r="C18" s="4">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
         <v>37</v>
       </c>
-      <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
         <f>F9</f>
         <v>31</v>
       </c>
-      <c r="G18" s="4">
-        <v>30</v>
-      </c>
-      <c r="H18" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="7">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
-        <v>37</v>
-      </c>
-      <c r="E19" s="4">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4">
-        <v>30</v>
-      </c>
-      <c r="H19" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="7">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2">
-        <v>37</v>
-      </c>
-      <c r="E20" s="4">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4">
-        <v>10</v>
-      </c>
       <c r="G20" s="4">
         <v>30</v>
       </c>
       <c r="H20" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="7">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>37</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4">
         <v>70</v>
       </c>
     </row>
@@ -1568,28 +1659,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1729,23 @@
       <c r="N1" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1676,8 +1788,23 @@
       <c r="N2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="7">
+        <v>7</v>
+      </c>
+      <c r="P2" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1720,8 +1847,23 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="7">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1764,8 +1906,23 @@
       <c r="N4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="7">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1808,8 +1965,23 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="7">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1852,8 +2024,23 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="7">
+        <v>7</v>
+      </c>
+      <c r="P6" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1896,8 +2083,23 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="7">
+        <v>7</v>
+      </c>
+      <c r="P7" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1940,8 +2142,23 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="7">
+        <v>7</v>
+      </c>
+      <c r="P8" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1984,8 +2201,23 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="7">
+        <v>7</v>
+      </c>
+      <c r="P9" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2028,8 +2260,23 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="7">
+        <v>7</v>
+      </c>
+      <c r="P10" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2072,8 +2319,23 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="7">
+        <v>7</v>
+      </c>
+      <c r="P11" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -2116,8 +2378,23 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="7">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -2160,8 +2437,23 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="7">
+        <v>7</v>
+      </c>
+      <c r="P13" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2204,8 +2496,23 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="7">
+        <v>7</v>
+      </c>
+      <c r="P14" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2218,7 +2525,7 @@
       <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
       <c r="F15" s="7">
@@ -2248,229 +2555,440 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="7">
+        <v>7</v>
+      </c>
+      <c r="P15" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>500</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>7</v>
+      </c>
+      <c r="P16" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0.222</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>500</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>7</v>
+      </c>
+      <c r="P17" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.106</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
         <v>5</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>7</v>
+      </c>
+      <c r="P18" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>5.7</v>
       </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <v>8</v>
       </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>7</v>
+      </c>
+      <c r="P19" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B20" s="7">
         <v>20</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C20" s="7">
         <f>C12</f>
         <v>70</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="7">
         <f>D12</f>
         <v>80</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E20" s="7">
         <v>30</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F20" s="7">
         <v>12</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G20" s="7">
         <f>G9</f>
         <v>16.5</v>
       </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>10</v>
+      </c>
+      <c r="J20" s="7">
         <v>20</v>
       </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>7</v>
+      </c>
+      <c r="P20" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>70</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="B21" s="7">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7">
+        <v>70</v>
+      </c>
+      <c r="D21" s="7">
         <v>80</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E21" s="7">
         <v>7</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F21" s="7">
         <v>10.8</v>
       </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
         <v>4</v>
       </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>7</v>
+      </c>
+      <c r="P21" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B22" s="7">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
-        <v>70</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C22" s="7">
+        <v>70</v>
+      </c>
+      <c r="D22" s="7">
         <v>80</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E22" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F22" s="7">
         <v>6.9</v>
       </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
         <v>4</v>
       </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>7</v>
+      </c>
+      <c r="P22" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
